--- a/Application/DriverReports Route (26 Sep 2016).xlsx
+++ b/Application/DriverReports Route (26 Sep 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="125">
   <si>
     <t>Doorstep Chef Driver Sheet  Week: 26 Sep 2016</t>
   </si>
@@ -55,22 +55,46 @@
     <t>AdditionalInfo</t>
   </si>
   <si>
+    <t>jackson frost</t>
+  </si>
+  <si>
+    <t>0796857463</t>
+  </si>
+  <si>
+    <t>Snowflake Avenue 13</t>
+  </si>
+  <si>
     <t>Bill Gates</t>
   </si>
   <si>
     <t>0746449568</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Seth Rogen</t>
+    <t>James Bond</t>
+  </si>
+  <si>
+    <t>0987654432</t>
+  </si>
+  <si>
+    <t>Press 45</t>
+  </si>
+  <si>
+    <t>Dane Left</t>
   </si>
   <si>
     <t>0746446895</t>
   </si>
   <si>
-    <t>Dane Left</t>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>0989898987</t>
   </si>
   <si>
     <t>Allen Franco</t>
@@ -85,6 +109,45 @@
     <t>0364498572</t>
   </si>
   <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>0788656465</t>
+  </si>
+  <si>
+    <t>Dennis Menace</t>
+  </si>
+  <si>
+    <t>0987656543</t>
+  </si>
+  <si>
+    <t>Rossouw's street 45</t>
+  </si>
+  <si>
+    <t>Bonnie Clyde</t>
+  </si>
+  <si>
+    <t>0283744444</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>0783547463</t>
+  </si>
+  <si>
+    <t>Liam Neeson</t>
+  </si>
+  <si>
+    <t>0283746574</t>
+  </si>
+  <si>
+    <t>Afro Jack</t>
+  </si>
+  <si>
+    <t>0324487569</t>
+  </si>
+  <si>
     <t>Driver: Keanu - 074 644 6895</t>
   </si>
   <si>
@@ -142,9 +205,6 @@
     <t>White Shadow</t>
   </si>
   <si>
-    <t>0796857463</t>
-  </si>
-  <si>
     <t>White street 28</t>
   </si>
   <si>
@@ -200,6 +260,36 @@
   </si>
   <si>
     <t>65 VanD Avenue</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>0314569832</t>
+  </si>
+  <si>
+    <t>25 Teemo Street</t>
+  </si>
+  <si>
+    <t>Rossouw Binedell</t>
+  </si>
+  <si>
+    <t>0234567890</t>
+  </si>
+  <si>
+    <t>Waarever Rossouw bly</t>
+  </si>
+  <si>
+    <t>asasass</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>0315524652</t>
+  </si>
+  <si>
+    <t>ergfdzf</t>
   </si>
   <si>
     <t>Driver: Michael - 078 965 9658</t>
@@ -747,7 +837,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,6 +852,20 @@
         <bgColor indexed="23"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="mediumGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor indexed="23"/>
+        <bgColor indexed="23"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -1107,7 +1211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1165,6 +1269,110 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -1346,72 +1554,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
@@ -1533,111 +1806,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
@@ -1676,8 +1949,8 @@
     <col min="5" max="5" width="3.90625" customWidth="true"/>
     <col min="6" max="6" width="3.90625" customWidth="true"/>
     <col min="7" max="7" width="3.90625" customWidth="true"/>
-    <col min="8" max="8" width="59.890625" customWidth="true"/>
-    <col min="9" max="9" width="29.9453125" customWidth="true"/>
+    <col min="8" max="8" width="62.7578125" customWidth="true"/>
+    <col min="9" max="9" width="31.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1793,7 +2066,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s" s="36">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1819,18 +2092,18 @@
         <v>1</v>
       </c>
       <c r="H5" t="s" s="44">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="45">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s" s="47">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s" s="48">
         <v>1</v>
@@ -1848,47 +2121,47 @@
         <v>1</v>
       </c>
       <c r="H6" t="s" s="53">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="54">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="55">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s" s="56">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="57">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="59">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="60">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="61">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="62">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="56">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s" s="57">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="58">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="59">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="60">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="61">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="62">
-        <v>15</v>
-      </c>
       <c r="I7" t="s" s="63">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="64">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s" s="65">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s" s="66">
         <v>1</v>
@@ -1906,10 +2179,242 @@
         <v>1</v>
       </c>
       <c r="H8" t="s" s="71">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="72">
-        <v>15</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="73">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="74">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="75">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="76">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="79">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="80">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s" s="81">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="82">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="83">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s" s="84">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="89">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s" s="90">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="91">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s" s="92">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s" s="93">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="94">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="95">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="96">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="97">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="98">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s" s="99">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="100">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="101">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="103">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="104">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="105">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="106">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="107">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="109">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s" s="110">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s" s="111">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="112">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="113">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s" s="115">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s" s="116">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s" s="117">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="118">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="119">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="120">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="121">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="122">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s" s="123">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s" s="124">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s" s="125">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s" s="126">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="127">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s" s="128">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s" s="129">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="130">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s" s="131">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="132">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s" s="133">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s" s="134">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s" s="135">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="136">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="137">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="139">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s" s="140">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="141">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s" s="142">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s" s="143">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s" s="144">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1935,471 +2440,616 @@
     <col min="5" max="5" width="3.90625" customWidth="true"/>
     <col min="6" max="6" width="3.90625" customWidth="true"/>
     <col min="7" max="7" width="3.90625" customWidth="true"/>
-    <col min="8" max="8" width="58.015625" customWidth="true"/>
-    <col min="9" max="9" width="29.0078125" customWidth="true"/>
+    <col min="8" max="8" width="60.8828125" customWidth="true"/>
+    <col min="9" max="9" width="30.44140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="73">
+      <c r="A1" t="s" s="145">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="74">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="75">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="76">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="77">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="78">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="79">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="80">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s" s="81">
+      <c r="B1" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="147">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="148">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="149">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="150">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="151">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="152">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s" s="153">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="154">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="155">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="156">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="157">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="158">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="159">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="160">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="161">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="163">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="164">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="165">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="166">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="167">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="168">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s" s="169">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s" s="170">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s" s="171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="172">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s" s="173">
         <v>24</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="82">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="83">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="84">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="85">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="88">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="91">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="92">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="93">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="94">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s" s="95">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s" s="96">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s" s="97">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s" s="98">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s" s="99">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="100">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s" s="101">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="102">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="103">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="104">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="105">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="106">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="107">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s" s="108">
+      <c r="C4" t="s" s="174">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="175">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="176">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="177">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="179">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s" s="180">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="109">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s" s="110">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="111">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="112">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="113">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="115">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="116">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s" s="117">
+      <c r="A5" t="s" s="181">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s" s="182">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s" s="183">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="184">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="185">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="186">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="187">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="188">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s" s="189">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="118">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s" s="119">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s" s="120">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="121">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="122">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="123">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="124">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="125">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s" s="126">
+      <c r="A6" t="s" s="190">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s" s="191">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s" s="192">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="193">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="194">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="195">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="196">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="197">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s" s="198">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="127">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s" s="128">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s" s="129">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="130">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="131">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="132">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="133">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="134">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s" s="135">
+      <c r="A7" t="s" s="199">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s" s="200">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s" s="201">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="202">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="203">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="204">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="205">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="206">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s" s="207">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="136">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s" s="138">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="139">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="140">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="141">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="142">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="143">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s" s="144">
+      <c r="A8" t="s" s="208">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s" s="209">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s" s="210">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="211">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="212">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="213">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="214">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="215">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s" s="216">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="145">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s" s="146">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s" s="147">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="148">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="149">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="150">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="151">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="152">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s" s="153">
+      <c r="A9" t="s" s="217">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s" s="218">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s" s="219">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="220">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="221">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="222">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="223">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="224">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s" s="225">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="154">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s" s="155">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s" s="156">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="157">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s" s="158">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s" s="159">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s" s="160">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s" s="161">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s" s="162">
+      <c r="A10" t="s" s="226">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s" s="227">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s" s="228">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="229">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="230">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="231">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="232">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="233">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s" s="234">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="163">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s" s="164">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s" s="165">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="166">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s" s="167">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s" s="168">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s" s="169">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s" s="170">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s" s="171">
+      <c r="A11" t="s" s="235">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s" s="236">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s" s="237">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="238">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="239">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="240">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="241">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="242">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s" s="243">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="172">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s" s="173">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s" s="174">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="175">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s" s="176">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s" s="177">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s" s="178">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s" s="179">
-        <v>49</v>
-      </c>
-      <c r="I12" t="s" s="180">
+      <c r="A12" t="s" s="244">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s" s="245">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s" s="246">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="247">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="248">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="249">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="250">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="251">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s" s="252">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="181">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s" s="182">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s" s="183">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s" s="184">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s" s="185">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s" s="186">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s" s="187">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s" s="188">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s" s="189">
+      <c r="A13" t="s" s="253">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s" s="254">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s" s="255">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="256">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="257">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="258">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s" s="259">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s" s="260">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s" s="261">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="190">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s" s="191">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s" s="192">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s" s="193">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s" s="194">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s" s="195">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s" s="196">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s" s="197">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s" s="198">
+      <c r="A14" t="s" s="262">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s" s="263">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s" s="264">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="265">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="266">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s" s="267">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s" s="268">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s" s="269">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s" s="270">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="199">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s" s="200">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s" s="201">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s" s="202">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s" s="203">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s" s="204">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s" s="205">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s" s="206">
-        <v>58</v>
-      </c>
-      <c r="I15" t="s" s="207">
+      <c r="A15" t="s" s="271">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s" s="272">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s" s="273">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="274">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s" s="275">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="276">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s" s="277">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s" s="278">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="279">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="208">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s" s="209">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s" s="210">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s" s="211">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s" s="212">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s" s="213">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s" s="214">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s" s="215">
-        <v>61</v>
-      </c>
-      <c r="I16" t="s" s="216">
+      <c r="A16" t="s" s="280">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s" s="281">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s" s="282">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="283">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s" s="284">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="285">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s" s="286">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s" s="287">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s" s="288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="289">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s" s="290">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s" s="291">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s" s="292">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s" s="293">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s" s="294">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s" s="295">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s" s="296">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s" s="297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="298">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s" s="299">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s" s="300">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s" s="301">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s" s="302">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s" s="303">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s" s="304">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s" s="305">
+        <v>87</v>
+      </c>
+      <c r="I18" t="s" s="306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="307">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s" s="308">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s" s="309">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="310">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s" s="311">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s" s="312">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s" s="313">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s" s="314">
+        <v>84</v>
+      </c>
+      <c r="I19" t="s" s="315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="316">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s" s="317">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s" s="318">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s" s="319">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s" s="320">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s" s="321">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s" s="322">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s" s="323">
+        <v>88</v>
+      </c>
+      <c r="I20" t="s" s="324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="325">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s" s="326">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s" s="327">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s" s="328">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s" s="329">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s" s="330">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s" s="331">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s" s="332">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s" s="333">
         <v>1</v>
       </c>
     </row>
@@ -2426,413 +3076,413 @@
     <col min="5" max="5" width="3.90625" customWidth="true"/>
     <col min="6" max="6" width="3.90625" customWidth="true"/>
     <col min="7" max="7" width="3.90625" customWidth="true"/>
-    <col min="8" max="8" width="59.890625" customWidth="true"/>
-    <col min="9" max="9" width="29.9453125" customWidth="true"/>
+    <col min="8" max="8" width="62.7578125" customWidth="true"/>
+    <col min="9" max="9" width="31.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="217">
+      <c r="A1" t="s" s="334">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="218">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="219">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="220">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="221">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="222">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="223">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="224">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s" s="225">
-        <v>63</v>
+      <c r="B1" t="s" s="335">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="336">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="337">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="338">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="339">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="340">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="341">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s" s="342">
+        <v>93</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="226">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="227">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="228">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="229">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="230">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="231">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="232">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="233">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="234">
+      <c r="A2" t="s" s="343">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="344">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="345">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="346">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="347">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="348">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="349">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="350">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="351">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="235">
+      <c r="A3" t="s" s="352">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="236">
+      <c r="B3" t="s" s="353">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="237">
+      <c r="C3" t="s" s="354">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="238">
+      <c r="D3" t="s" s="355">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="239">
+      <c r="E3" t="s" s="356">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="240">
+      <c r="F3" t="s" s="357">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="241">
+      <c r="G3" t="s" s="358">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="242">
+      <c r="H3" t="s" s="359">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="243">
+      <c r="I3" t="s" s="360">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="244">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s" s="245">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="246">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="247">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="248">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="249">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="250">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="251">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s" s="252">
+      <c r="A4" t="s" s="361">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s" s="362">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="363">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="364">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="365">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="366">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="367">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="368">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s" s="369">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="253">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s" s="254">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s" s="255">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="256">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="257">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="258">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="259">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="260">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s" s="261">
+      <c r="A5" t="s" s="370">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s" s="371">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s" s="372">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="373">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="374">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="375">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="376">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="377">
+        <v>98</v>
+      </c>
+      <c r="I5" t="s" s="378">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="262">
-        <v>69</v>
-      </c>
-      <c r="B6" t="s" s="263">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s" s="264">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="265">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="266">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="267">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="268">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="269">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s" s="270">
+      <c r="A6" t="s" s="379">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="380">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s" s="381">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="382">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="383">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="384">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="385">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="386">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s" s="387">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="271">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s" s="272">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s" s="273">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="274">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="275">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="276">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="277">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="278">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s" s="279">
+      <c r="A7" t="s" s="388">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s" s="389">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s" s="390">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="391">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="392">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="393">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="394">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="395">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s" s="396">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="280">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s" s="281">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s" s="282">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="283">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="284">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="285">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="286">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="287">
-        <v>76</v>
-      </c>
-      <c r="I8" t="s" s="288">
+      <c r="A8" t="s" s="397">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s" s="398">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s" s="399">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="400">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="401">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="402">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="403">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="404">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s" s="405">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="289">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s" s="290">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s" s="291">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="292">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="293">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="294">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="295">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s" s="296">
-        <v>79</v>
-      </c>
-      <c r="I9" t="s" s="297">
+      <c r="A9" t="s" s="406">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s" s="407">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s" s="408">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="409">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="410">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="411">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="412">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="413">
+        <v>109</v>
+      </c>
+      <c r="I9" t="s" s="414">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="298">
-        <v>80</v>
-      </c>
-      <c r="B10" t="s" s="299">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s" s="300">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="301">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s" s="302">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s" s="303">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s" s="304">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s" s="305">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s" s="306">
+      <c r="A10" t="s" s="415">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s" s="416">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s" s="417">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="418">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="419">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="420">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="421">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="422">
+        <v>112</v>
+      </c>
+      <c r="I10" t="s" s="423">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="307">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s" s="308">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s" s="309">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="310">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s" s="311">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s" s="312">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s" s="313">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s" s="314">
-        <v>85</v>
-      </c>
-      <c r="I11" t="s" s="315">
+      <c r="A11" t="s" s="424">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s" s="425">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s" s="426">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="427">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="428">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="429">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="430">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="431">
+        <v>115</v>
+      </c>
+      <c r="I11" t="s" s="432">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="316">
-        <v>86</v>
-      </c>
-      <c r="B12" t="s" s="317">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s" s="318">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="319">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s" s="320">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s" s="321">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s" s="322">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s" s="323">
-        <v>88</v>
-      </c>
-      <c r="I12" t="s" s="324">
+      <c r="A12" t="s" s="433">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s" s="434">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s" s="435">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="436">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="437">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="438">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="439">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="440">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s" s="441">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="325">
-        <v>89</v>
-      </c>
-      <c r="B13" t="s" s="326">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s" s="327">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s" s="328">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s" s="329">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s" s="330">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s" s="331">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s" s="332">
-        <v>91</v>
-      </c>
-      <c r="I13" t="s" s="333">
+      <c r="A13" t="s" s="442">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s" s="443">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s" s="444">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="445">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="446">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="447">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s" s="448">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s" s="449">
+        <v>121</v>
+      </c>
+      <c r="I13" t="s" s="450">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="334">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s" s="335">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s" s="336">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s" s="337">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s" s="338">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s" s="339">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s" s="340">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s" s="341">
-        <v>94</v>
-      </c>
-      <c r="I14" t="s" s="342">
+      <c r="A14" t="s" s="451">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="452">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s" s="453">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="454">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="455">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s" s="456">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s" s="457">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s" s="458">
+        <v>124</v>
+      </c>
+      <c r="I14" t="s" s="459">
         <v>1</v>
       </c>
     </row>

--- a/Application/DriverReports Route (26 Sep 2016).xlsx
+++ b/Application/DriverReports Route (26 Sep 2016).xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="53">
-  <si>
-    <t>Doorstep Chef Driver Sheet  Week: 26 Sep 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="114">
+  <si>
+    <t>Doorstep Chef Driver Sheet  Week: 8</t>
   </si>
   <si>
     <t/>
@@ -55,64 +55,142 @@
     <t>AdditionalInfo</t>
   </si>
   <si>
-    <t>jackson frost</t>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>0746449568</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Seth Rogen</t>
+  </si>
+  <si>
+    <t>0746446895</t>
+  </si>
+  <si>
+    <t>Dane Left</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>0989898987</t>
+  </si>
+  <si>
+    <t>Allen Franco</t>
+  </si>
+  <si>
+    <t>0615514638</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>0364498572</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>0788656465</t>
+  </si>
+  <si>
+    <t>Dennis Menace</t>
+  </si>
+  <si>
+    <t>0987656543</t>
+  </si>
+  <si>
+    <t>Rossouw's street 45</t>
+  </si>
+  <si>
+    <t>Bonnie Clyde</t>
+  </si>
+  <si>
+    <t>0283744444</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>0783547463</t>
+  </si>
+  <si>
+    <t>Liam Neeson</t>
+  </si>
+  <si>
+    <t>0283746574</t>
+  </si>
+  <si>
+    <t>Afro Jack</t>
+  </si>
+  <si>
+    <t>0324487569</t>
+  </si>
+  <si>
+    <t>Keanu Arendze</t>
+  </si>
+  <si>
+    <t>Driver: Keanu - 074 644 6895</t>
+  </si>
+  <si>
+    <t>Route: 1</t>
+  </si>
+  <si>
+    <t>James Earl Jones</t>
+  </si>
+  <si>
+    <t>0642253486</t>
+  </si>
+  <si>
+    <t>54 Snowflake Avenue, Morgenster, Brackenfell, 7560</t>
+  </si>
+  <si>
+    <t>James Franco</t>
+  </si>
+  <si>
+    <t>0215514257</t>
+  </si>
+  <si>
+    <t>25 Houtcrest Street, Houtbay, 7865</t>
+  </si>
+  <si>
+    <t>Harison Ford</t>
+  </si>
+  <si>
+    <t>0786653216</t>
+  </si>
+  <si>
+    <t>25 Du'urbanvale Crescent, Vredekloof, 6984</t>
+  </si>
+  <si>
+    <t>Even Steven</t>
+  </si>
+  <si>
+    <t>0989877654</t>
+  </si>
+  <si>
+    <t>Church street 30</t>
+  </si>
+  <si>
+    <t>Florence NightingGale</t>
+  </si>
+  <si>
+    <t>45 Milk Street, Durbanville</t>
+  </si>
+  <si>
+    <t>White Shadow</t>
   </si>
   <si>
     <t>0796857463</t>
   </si>
   <si>
-    <t>Snowflake Avenue 13</t>
-  </si>
-  <si>
-    <t>Allen Franco</t>
-  </si>
-  <si>
-    <t>0615514638</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Selena Gomez</t>
-  </si>
-  <si>
-    <t>0364498572</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>0788656465</t>
-  </si>
-  <si>
-    <t>Afro Jack</t>
-  </si>
-  <si>
-    <t>0324487569</t>
-  </si>
-  <si>
-    <t>Driver: Keanu - 074 644 6895</t>
-  </si>
-  <si>
-    <t>Route: 1</t>
-  </si>
-  <si>
-    <t>James Franco</t>
-  </si>
-  <si>
-    <t>0215514257</t>
-  </si>
-  <si>
-    <t>25 Houtcrest Street, Houtbay, 7865</t>
-  </si>
-  <si>
-    <t>Harison Ford</t>
-  </si>
-  <si>
-    <t>0786653216</t>
-  </si>
-  <si>
-    <t>25 Du'urbanvale Crescent, Vredekloof, 6984</t>
+    <t>White street 28</t>
   </si>
   <si>
     <t>Donald Trump</t>
@@ -124,6 +202,42 @@
     <t>Hootville 34</t>
   </si>
   <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>0978675621</t>
+  </si>
+  <si>
+    <t>Disney Land 12</t>
+  </si>
+  <si>
+    <t>Lone Ranger</t>
+  </si>
+  <si>
+    <t>0832534637</t>
+  </si>
+  <si>
+    <t>Tattle avenue 21</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>0786543876</t>
+  </si>
+  <si>
+    <t>Expelliarmus 14</t>
+  </si>
+  <si>
+    <t>Jack Sparrow</t>
+  </si>
+  <si>
+    <t>0635473563</t>
+  </si>
+  <si>
+    <t>Sparrow road 23</t>
+  </si>
+  <si>
     <t>Adam Lavine</t>
   </si>
   <si>
@@ -133,6 +247,15 @@
     <t>65 VanD Avenue</t>
   </si>
   <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>0314569832</t>
+  </si>
+  <si>
+    <t>25 Teemo Street</t>
+  </si>
+  <si>
     <t>Rossouw Binedell</t>
   </si>
   <si>
@@ -142,12 +265,36 @@
     <t>Waarever Rossouw bly</t>
   </si>
   <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>0315524652</t>
+  </si>
+  <si>
+    <t>ergfdzf</t>
+  </si>
+  <si>
     <t>Driver: Michael - 078 965 9658</t>
   </si>
   <si>
     <t>Route: 2</t>
   </si>
   <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>0987878765</t>
+  </si>
+  <si>
+    <t>Tree street 29</t>
+  </si>
+  <si>
+    <t>Kevin Hart</t>
+  </si>
+  <si>
+    <t>98 Blue Avenue, Somerset-West</t>
+  </si>
+  <si>
     <t>Michael Bay</t>
   </si>
   <si>
@@ -166,6 +313,33 @@
     <t>57 Djy Avenue</t>
   </si>
   <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>0797979797</t>
+  </si>
+  <si>
+    <t>Loonytoon 43</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>0346969874</t>
+  </si>
+  <si>
+    <t>29 Teen Avenue</t>
+  </si>
+  <si>
+    <t>King Kong</t>
+  </si>
+  <si>
+    <t>0876543767</t>
+  </si>
+  <si>
+    <t>Milkbush street 45</t>
+  </si>
+  <si>
     <t>Astrix Oblix</t>
   </si>
   <si>
@@ -173,6 +347,15 @@
   </si>
   <si>
     <t>Gaul 12</t>
+  </si>
+  <si>
+    <t>Ellen TheGenarous</t>
+  </si>
+  <si>
+    <t>0647758942</t>
+  </si>
+  <si>
+    <t>9 Dumbo Park</t>
   </si>
 </sst>
 </file>
@@ -621,7 +804,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +819,20 @@
         <bgColor indexed="23"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="mediumGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor indexed="23"/>
+        <bgColor indexed="23"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -981,7 +1178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1039,6 +1236,110 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -1207,6 +1508,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
@@ -1290,20 +1734,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
@@ -1342,8 +1864,8 @@
     <col min="5" max="5" width="3.90625" customWidth="true"/>
     <col min="6" max="6" width="3.90625" customWidth="true"/>
     <col min="7" max="7" width="3.90625" customWidth="true"/>
-    <col min="8" max="8" width="59.890625" customWidth="true"/>
-    <col min="9" max="9" width="29.9453125" customWidth="true"/>
+    <col min="8" max="8" width="62.7578125" customWidth="true"/>
+    <col min="9" max="9" width="31.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1456,39 +1978,39 @@
         <v>1</v>
       </c>
       <c r="H4" t="s" s="35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s" s="36">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="37">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="38">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="39">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="40">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="41">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="42">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="43">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="44">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="38">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s" s="39">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="40">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="41">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="42">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="43">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="44">
-        <v>18</v>
-      </c>
       <c r="I5" t="s" s="45">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1496,7 +2018,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s" s="47">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s" s="48">
         <v>1</v>
@@ -1514,19 +2036,19 @@
         <v>1</v>
       </c>
       <c r="H6" t="s" s="53">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s" s="54">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="56">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="56">
-        <v>22</v>
-      </c>
       <c r="C7" t="s" s="57">
         <v>1</v>
       </c>
@@ -1543,39 +2065,271 @@
         <v>1</v>
       </c>
       <c r="H7" t="s" s="62">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s" s="63">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="64">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="65">
         <v>23</v>
       </c>
-      <c r="B8" t="s" s="65">
+      <c r="C8" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="67">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="68">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="69">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="70">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="71">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s" s="72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="73">
         <v>24</v>
       </c>
-      <c r="C8" t="s" s="66">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="67">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="68">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="70">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="71">
+      <c r="B9" t="s" s="74">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="75">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="76">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="79">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="80">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s" s="81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="82">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s" s="83">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s" s="84">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="89">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s" s="90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="91">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s" s="92">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s" s="93">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="94">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="95">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="96">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="97">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="98">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="100">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s" s="101">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="103">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="104">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="105">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="106">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="107">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s" s="108">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="109">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s" s="110">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s" s="111">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="112">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="113">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s" s="115">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s" s="116">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s" s="117">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="118">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s" s="119">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s" s="120">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="121">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="122">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s" s="123">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s" s="124">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s" s="125">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s" s="126">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="127">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s" s="128">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s" s="129">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="130">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s" s="131">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="132">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s" s="133">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s" s="134">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s" s="135">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="136">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s" s="137">
         <v>18</v>
       </c>
-      <c r="I8" t="s" s="72">
-        <v>18</v>
+      <c r="C16" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="139">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s" s="140">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="141">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s" s="142">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s" s="143">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s" s="144">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1594,246 +2348,565 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.8125" customWidth="true"/>
+    <col min="1" max="1" width="20.625" customWidth="true"/>
     <col min="2" max="2" width="11.25" customWidth="true"/>
     <col min="3" max="3" width="3.90625" customWidth="true"/>
     <col min="4" max="4" width="3.90625" customWidth="true"/>
     <col min="5" max="5" width="3.90625" customWidth="true"/>
     <col min="6" max="6" width="3.90625" customWidth="true"/>
     <col min="7" max="7" width="3.90625" customWidth="true"/>
-    <col min="8" max="8" width="59.890625" customWidth="true"/>
-    <col min="9" max="9" width="29.9453125" customWidth="true"/>
+    <col min="8" max="8" width="60.8828125" customWidth="true"/>
+    <col min="9" max="9" width="30.44140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="73">
+      <c r="A1" t="s" s="145">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="74">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="75">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="76">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="77">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="78">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="79">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="80">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s" s="81">
-        <v>26</v>
+      <c r="B1" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="147">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="148">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="149">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="150">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="151">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="152">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s" s="153">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="82">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="83">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="84">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="85">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="88">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="90">
+      <c r="A2" t="s" s="154">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="155">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="156">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="157">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="158">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="159">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="160">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="161">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="162">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="91">
+      <c r="A3" t="s" s="163">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="92">
+      <c r="B3" t="s" s="164">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="93">
+      <c r="C3" t="s" s="165">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="94">
+      <c r="D3" t="s" s="166">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="95">
+      <c r="E3" t="s" s="167">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="96">
+      <c r="F3" t="s" s="168">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="97">
+      <c r="G3" t="s" s="169">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="98">
+      <c r="H3" t="s" s="170">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="99">
+      <c r="I3" t="s" s="171">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="100">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s" s="101">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s" s="102">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="103">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="104">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="105">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="106">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="107">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s" s="108">
+      <c r="A4" t="s" s="172">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="173">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="174">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="175">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="176">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="177">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="179">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s" s="180">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="109">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s" s="110">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s" s="111">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="112">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="113">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="115">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="116">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s" s="117">
+      <c r="A5" t="s" s="181">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s" s="182">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s" s="183">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="184">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="185">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="186">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="187">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="188">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s" s="189">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="118">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s" s="119">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s" s="120">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="121">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="122">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="123">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="124">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="125">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s" s="126">
+      <c r="A6" t="s" s="190">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s" s="191">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s" s="192">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="193">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="194">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="195">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="196">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="197">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s" s="198">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="127">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s" s="128">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s" s="129">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="130">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="131">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s" s="132">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s" s="133">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s" s="134">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s" s="135">
+      <c r="A7" t="s" s="199">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s" s="200">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s" s="201">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="202">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="203">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="204">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="205">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="206">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s" s="207">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="136">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s" s="137">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s" s="138">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="139">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="140">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="141">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s" s="142">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s" s="143">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s" s="144">
+      <c r="A8" t="s" s="208">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s" s="209">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s" s="210">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="211">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="212">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="213">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="214">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="215">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s" s="216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="217">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s" s="218">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s" s="219">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="220">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="221">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="222">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="223">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="224">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s" s="225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="226">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s" s="227">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s" s="228">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="229">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="230">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="231">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="232">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="233">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s" s="234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="235">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s" s="236">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s" s="237">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="238">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="239">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="240">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="241">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="242">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s" s="243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="244">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s" s="245">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s" s="246">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="247">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="248">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="249">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="250">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="251">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s" s="252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="253">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s" s="254">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s" s="255">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="256">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s" s="257">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="258">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s" s="259">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s" s="260">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s" s="261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="262">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s" s="263">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s" s="264">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="265">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s" s="266">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s" s="267">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s" s="268">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s" s="269">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s" s="270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="271">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s" s="272">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s" s="273">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="274">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s" s="275">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="276">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s" s="277">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s" s="278">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="280">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s" s="281">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s" s="282">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="283">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s" s="284">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="285">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s" s="286">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s" s="287">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s" s="288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="289">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s" s="290">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s" s="291">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s" s="292">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s" s="293">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s" s="294">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s" s="295">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s" s="296">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s" s="297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="298">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s" s="299">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s" s="300">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s" s="301">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s" s="302">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s" s="303">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s" s="304">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s" s="305">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s" s="306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="307">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s" s="308">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s" s="309">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s" s="310">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s" s="311">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s" s="312">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s" s="313">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s" s="314">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s" s="315">
         <v>1</v>
       </c>
     </row>
@@ -1860,181 +2933,355 @@
     <col min="5" max="5" width="3.90625" customWidth="true"/>
     <col min="6" max="6" width="3.90625" customWidth="true"/>
     <col min="7" max="7" width="3.90625" customWidth="true"/>
-    <col min="8" max="8" width="59.890625" customWidth="true"/>
-    <col min="9" max="9" width="29.9453125" customWidth="true"/>
+    <col min="8" max="8" width="62.7578125" customWidth="true"/>
+    <col min="9" max="9" width="31.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="145">
+      <c r="A1" t="s" s="316">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="147">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="148">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="149">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="150">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s" s="151">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="152">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s" s="153">
-        <v>43</v>
+      <c r="B1" t="s" s="317">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="318">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="319">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="320">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="321">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="322">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="323">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s" s="324">
+        <v>87</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="154">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="155">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="156">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="157">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="158">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="159">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="160">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s" s="161">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="162">
+      <c r="A2" t="s" s="325">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="326">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="327">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="328">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="329">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="330">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="331">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="332">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="333">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="163">
+      <c r="A3" t="s" s="334">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="164">
+      <c r="B3" t="s" s="335">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="165">
+      <c r="C3" t="s" s="336">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="166">
+      <c r="D3" t="s" s="337">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="167">
+      <c r="E3" t="s" s="338">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="168">
+      <c r="F3" t="s" s="339">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="169">
+      <c r="G3" t="s" s="340">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="170">
+      <c r="H3" t="s" s="341">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="171">
+      <c r="I3" t="s" s="342">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="172">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s" s="173">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s" s="174">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="175">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="176">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="177">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s" s="178">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s" s="179">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s" s="180">
+      <c r="A4" t="s" s="343">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s" s="344">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s" s="345">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="346">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="347">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="348">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="349">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="350">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s" s="351">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="181">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s" s="182">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s" s="183">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="184">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="185">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s" s="186">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s" s="187">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s" s="188">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s" s="189">
+      <c r="A5" t="s" s="352">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s" s="353">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="354">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="355">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="356">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="357">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="358">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="359">
+        <v>92</v>
+      </c>
+      <c r="I5" t="s" s="360">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="190">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s" s="191">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s" s="192">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="193">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="194">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s" s="195">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s" s="196">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s" s="197">
-        <v>52</v>
-      </c>
-      <c r="I6" t="s" s="198">
+      <c r="A6" t="s" s="361">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s" s="362">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s" s="363">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="364">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="365">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="366">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="367">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="368">
+        <v>95</v>
+      </c>
+      <c r="I6" t="s" s="369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="370">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s" s="371">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="372">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="373">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="374">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="375">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="376">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="377">
+        <v>98</v>
+      </c>
+      <c r="I7" t="s" s="378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="379">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s" s="380">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s" s="381">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="382">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="383">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="384">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="385">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="386">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s" s="387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="388">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s" s="389">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s" s="390">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="391">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="392">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="393">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s" s="394">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="395">
+        <v>104</v>
+      </c>
+      <c r="I9" t="s" s="396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="397">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s" s="398">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s" s="399">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="400">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="401">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="402">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s" s="403">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s" s="404">
+        <v>107</v>
+      </c>
+      <c r="I10" t="s" s="405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="406">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s" s="407">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s" s="408">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="409">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s" s="410">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="411">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s" s="412">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="413">
+        <v>110</v>
+      </c>
+      <c r="I11" t="s" s="414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="415">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s" s="416">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s" s="417">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="418">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s" s="419">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="420">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s" s="421">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s" s="422">
+        <v>113</v>
+      </c>
+      <c r="I12" t="s" s="423">
         <v>1</v>
       </c>
     </row>
